--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gdrive\Il mio Drive\Progetti\ntJobsPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5028F7B-8DF7-442A-A9A8-836BDAF6BB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D82B2C-CCD6-41E8-B9B2-B7FD05108AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="legend" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">files!$A$1:$K$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">files!$A$1:$K$62</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,8 +30,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Utente</author>
+  </authors>
+  <commentList>
+    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{5B57062A-BB21-4B31-94CE-06B54F3EF372}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Utente:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{08573202-CC33-45AB-8DB5-D69E9BAA6B74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Utente:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -429,9 +487,6 @@
     <t>index.xls sostituisce index*.txt history.txt (contengono solo rimandi al file xls)</t>
   </si>
   <si>
-    <t>naSdbMail</t>
-  </si>
-  <si>
     <t>FALCRI, SENDBLASTER</t>
   </si>
   <si>
@@ -513,15 +568,6 @@
     <t>TOOL</t>
   </si>
   <si>
-    <t>pythonx64_libs</t>
-  </si>
-  <si>
-    <t>librerie richieste da python ntjobsos enviroment</t>
-  </si>
-  <si>
-    <t>PIP</t>
-  </si>
-  <si>
     <t>RES</t>
   </si>
   <si>
@@ -562,13 +608,64 @@
   </si>
   <si>
     <t>Web Server con Bootle</t>
+  </si>
+  <si>
+    <t>admin_mirror.cmd</t>
+  </si>
+  <si>
+    <t>Mirror command</t>
+  </si>
+  <si>
+    <t>Mirror da ntjobspy a ntjobsos github usando ntjobs_mirror_github.txt</t>
+  </si>
+  <si>
+    <t>GITHUB</t>
+  </si>
+  <si>
+    <t>admin_mirror_github.cmd</t>
+  </si>
+  <si>
+    <t>admin_mirror_github.txt</t>
+  </si>
+  <si>
+    <t>APP.PY</t>
+  </si>
+  <si>
+    <t>APP.CMD</t>
+  </si>
+  <si>
+    <t>APP.SH</t>
+  </si>
+  <si>
+    <t>naSdbMail.py</t>
+  </si>
+  <si>
+    <t>PDF, DATA</t>
+  </si>
+  <si>
+    <t>DB, SQLITE</t>
+  </si>
+  <si>
+    <t>SYS, LOG</t>
+  </si>
+  <si>
+    <t>TEST, SYS</t>
+  </si>
+  <si>
+    <t>pythonx64_pip_libs</t>
+  </si>
+  <si>
+    <t>librerie richieste da python ntjobsos enviroment da pip</t>
+  </si>
+  <si>
+    <t>PIP, SYS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +696,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -626,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,6 +764,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -933,12 +1046,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -950,6 +1063,7 @@
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
   </cols>
@@ -980,7 +1094,7 @@
         <v>118</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>4</v>
@@ -989,7 +1103,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1008,19 +1122,25 @@
       <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="13">
+        <v>45505</v>
+      </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3">
         <v>30</v>
@@ -1034,14 +1154,20 @@
       <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I3" s="12">
+        <v>45474</v>
+      </c>
       <c r="J3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1066,16 +1192,19 @@
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I4" s="12">
+        <v>45474</v>
+      </c>
       <c r="J4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="3">
         <v>99</v>
@@ -1089,19 +1218,25 @@
       <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I5" s="12">
+        <v>45474</v>
+      </c>
       <c r="J5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3">
         <v>40</v>
@@ -1115,19 +1250,25 @@
       <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I6" s="12">
+        <v>45474</v>
+      </c>
       <c r="J6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3">
         <v>41</v>
@@ -1141,19 +1282,25 @@
       <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I7" s="12">
+        <v>45474</v>
+      </c>
       <c r="J7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="3">
         <v>80</v>
@@ -1167,19 +1314,25 @@
       <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="G8" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I8" s="12">
+        <v>45474</v>
+      </c>
       <c r="J8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3">
         <v>50</v>
@@ -1193,8 +1346,14 @@
       <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I9" s="12">
+        <v>45474</v>
       </c>
       <c r="J9" t="s">
         <v>29</v>
@@ -1205,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
@@ -1214,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
@@ -1222,11 +1381,14 @@
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I10" s="11">
+        <v>45474</v>
+      </c>
       <c r="J10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1245,8 +1407,14 @@
       <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I11" s="12">
+        <v>45474</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
@@ -1266,7 +1434,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
@@ -1274,16 +1442,19 @@
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I12" s="11">
+        <v>45505</v>
+      </c>
       <c r="J12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="3">
         <v>30</v>
@@ -1303,16 +1474,19 @@
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I13" s="12">
+        <v>45474</v>
+      </c>
       <c r="J13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3">
         <v>50</v>
@@ -1332,16 +1506,19 @@
       <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I14" s="12">
+        <v>45474</v>
+      </c>
       <c r="J14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3">
         <v>100</v>
@@ -1361,16 +1538,19 @@
       <c r="H15" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="I15" s="12">
+        <v>45474</v>
+      </c>
       <c r="J15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3">
         <v>80</v>
@@ -1389,6 +1569,9 @@
       </c>
       <c r="H16" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I16" s="12">
+        <v>45474</v>
       </c>
       <c r="J16" t="s">
         <v>29</v>
@@ -1399,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
@@ -1408,13 +1591,16 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45505</v>
       </c>
       <c r="J17" t="s">
         <v>29</v>
@@ -1434,13 +1620,16 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45474</v>
       </c>
       <c r="J18" t="s">
         <v>29</v>
@@ -1460,7 +1649,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>32</v>
@@ -1470,6 +1659,9 @@
       </c>
       <c r="H19" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I19" s="11">
+        <v>45474</v>
       </c>
       <c r="J19" t="s">
         <v>29</v>
@@ -1489,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>54</v>
@@ -1499,6 +1691,9 @@
       </c>
       <c r="H20" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I20" s="11">
+        <v>45474</v>
       </c>
       <c r="J20" t="s">
         <v>29</v>
@@ -1518,7 +1713,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>54</v>
@@ -1529,11 +1724,14 @@
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I21" s="11">
+        <v>45474</v>
+      </c>
       <c r="J21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -1558,11 +1756,14 @@
       <c r="H22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I22" s="12">
+        <v>45474</v>
+      </c>
       <c r="J22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1587,11 +1788,14 @@
       <c r="H23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I23" s="12">
+        <v>45474</v>
+      </c>
       <c r="J23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -1616,11 +1820,14 @@
       <c r="H24" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I24" s="12">
+        <v>45474</v>
+      </c>
       <c r="J24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -1639,8 +1846,14 @@
       <c r="F25" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G25" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I25" s="12">
+        <v>45474</v>
       </c>
       <c r="J25" t="s">
         <v>29</v>
@@ -1665,14 +1878,20 @@
       <c r="F26" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="G26" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I26" s="12">
+        <v>45474</v>
+      </c>
       <c r="J26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -1691,14 +1910,20 @@
       <c r="F27" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I27" s="12">
+        <v>45474</v>
+      </c>
       <c r="J27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -1717,14 +1942,20 @@
       <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G28" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I28" s="12">
+        <v>45474</v>
+      </c>
       <c r="J28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -1743,14 +1974,20 @@
       <c r="F29" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G29" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H29" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I29" s="12">
+        <v>45474</v>
+      </c>
       <c r="J29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -1769,14 +2006,20 @@
       <c r="F30" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G30" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="H30" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I30" s="12">
+        <v>45474</v>
+      </c>
       <c r="J30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -1795,14 +2038,20 @@
       <c r="F31" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G31" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I31" s="12">
+        <v>45474</v>
+      </c>
       <c r="J31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1821,8 +2070,14 @@
       <c r="F32" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I32" s="12">
+        <v>45474</v>
       </c>
       <c r="J32" t="s">
         <v>29</v>
@@ -1850,6 +2105,9 @@
       <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I33" s="12">
+        <v>45474</v>
+      </c>
       <c r="J33" t="s">
         <v>29</v>
       </c>
@@ -1876,6 +2134,9 @@
       <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I34" s="12">
+        <v>45474</v>
+      </c>
       <c r="J34" t="s">
         <v>29</v>
       </c>
@@ -1902,6 +2163,9 @@
       <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I35" s="12">
+        <v>45474</v>
+      </c>
       <c r="J35" t="s">
         <v>29</v>
       </c>
@@ -1928,6 +2192,9 @@
       <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I36" s="12">
+        <v>45474</v>
+      </c>
       <c r="J36" t="s">
         <v>29</v>
       </c>
@@ -1946,13 +2213,16 @@
         <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I37" s="11">
+        <v>45474</v>
       </c>
       <c r="J37" t="s">
         <v>29</v>
@@ -1972,13 +2242,19 @@
         <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G38" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H38" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I38" s="11">
+        <v>45474</v>
       </c>
       <c r="J38" t="s">
         <v>29</v>
@@ -1998,13 +2274,19 @@
         <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G39" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H39" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I39" s="11">
+        <v>45474</v>
       </c>
       <c r="J39" t="s">
         <v>29</v>
@@ -2024,13 +2306,19 @@
         <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G40" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I40" s="11">
+        <v>45474</v>
       </c>
       <c r="J40" t="s">
         <v>29</v>
@@ -2050,13 +2338,19 @@
         <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G41" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="H41" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I41" s="11">
+        <v>45474</v>
       </c>
       <c r="J41" t="s">
         <v>29</v>
@@ -2076,13 +2370,19 @@
         <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G42" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H42" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I42" s="11">
+        <v>45474</v>
       </c>
       <c r="J42" t="s">
         <v>29</v>
@@ -2102,13 +2402,19 @@
         <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G43" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I43" s="11">
+        <v>45474</v>
       </c>
       <c r="J43" t="s">
         <v>29</v>
@@ -2128,13 +2434,16 @@
         <v>115</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I44" s="11">
+        <v>45474</v>
       </c>
       <c r="J44" t="s">
         <v>29</v>
@@ -2154,13 +2463,19 @@
         <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G45" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I45" s="11">
+        <v>45474</v>
       </c>
       <c r="J45" t="s">
         <v>29</v>
@@ -2180,13 +2495,19 @@
         <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G46" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H46" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I46" s="11">
+        <v>45474</v>
       </c>
       <c r="J46" t="s">
         <v>29</v>
@@ -2206,13 +2527,19 @@
         <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G47" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H47" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I47" s="11">
+        <v>45474</v>
       </c>
       <c r="J47" t="s">
         <v>29</v>
@@ -2240,16 +2567,19 @@
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I48" s="12">
+        <v>45474</v>
+      </c>
       <c r="J48" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -2269,16 +2599,19 @@
       <c r="H49" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I49" s="12">
+        <v>45474</v>
+      </c>
       <c r="J49" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1">
         <v>80</v>
@@ -2287,27 +2620,30 @@
         <v>26</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="I50" s="11">
+        <v>45474</v>
+      </c>
       <c r="J50" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="C51" s="1">
         <v>80</v>
@@ -2322,21 +2658,24 @@
         <v>70</v>
       </c>
       <c r="G51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="12">
+        <v>45474</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="C52" s="3">
         <v>10</v>
@@ -2351,7 +2690,7 @@
         <v>32</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
@@ -2365,10 +2704,10 @@
     </row>
     <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -2377,16 +2716,19 @@
         <v>26</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G53" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I53" s="12">
+        <v>45505</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>29</v>
@@ -2394,10 +2736,10 @@
     </row>
     <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -2412,10 +2754,13 @@
         <v>70</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I54" s="12">
+        <v>45505</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>29</v>
@@ -2423,10 +2768,10 @@
     </row>
     <row r="55" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C55" s="1">
         <v>90</v>
@@ -2435,27 +2780,30 @@
         <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="I55" s="12">
+        <v>45505</v>
+      </c>
       <c r="J55" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C56" s="1">
         <v>90</v>
@@ -2464,27 +2812,30 @@
         <v>21</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="I56" s="12">
+        <v>45505</v>
+      </c>
       <c r="J56" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -2493,21 +2844,24 @@
         <v>40</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="I57" s="12">
+        <v>45505</v>
+      </c>
       <c r="J57" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C58" s="1">
         <v>50</v>
@@ -2516,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>31</v>
@@ -2527,16 +2881,19 @@
       <c r="H58" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="I58" s="11">
+        <v>45474</v>
+      </c>
       <c r="J58" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C59" s="1">
         <v>50</v>
@@ -2545,7 +2902,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>31</v>
@@ -2556,20 +2913,126 @@
       <c r="H59" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="I59" s="11">
+        <v>45474</v>
+      </c>
       <c r="J59" s="1" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="60" spans="1:10" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" s="11">
+        <v>45474</v>
+      </c>
+      <c r="J60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" s="12">
+        <v>45505</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I62" s="12">
+        <v>45505</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K52" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:K62" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
       <filters>
+        <filter val="DATA"/>
         <filter val="DOCS"/>
+        <filter val="FOLDER"/>
+        <filter val="LIB"/>
+        <filter val="LIBC"/>
+        <filter val="RES"/>
+        <filter val="TWX64"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/index.xlsx
+++ b/index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="files" sheetId="1" state="visible" r:id="rId3"/>
@@ -16,7 +16,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -36,6 +36,16 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Autore sconosciuto:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Utente:
 </t>
         </r>
@@ -49,6 +59,39 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Autore sconosciuto:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Utente:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Autore sconosciuto:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Utente:
 </t>
         </r>
@@ -59,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="201">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -559,7 +602,16 @@
     <t xml:space="preserve">admin_mirror_github.cmd</t>
   </si>
   <si>
-    <t xml:space="preserve">Mirror da ntjobspy a ntjobsos github usando ntjobs_mirror_github.txt</t>
+    <t xml:space="preserve">Mirror da ntjobsos a ntjobsos github usando ntjobs_mirror_github.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_mirror_ntrobot.cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror da ntjobsos  a ntrobot\ntjobsos github usando ntjobs_mirror_github.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror da ntjobsos  a ntjobsos github usando ntjobs_mirror_github.txt</t>
   </si>
   <si>
     <t xml:space="preserve">pyscripter</t>
@@ -602,6 +654,9 @@
   </si>
   <si>
     <t xml:space="preserve">index.xls sostituisce index*.txt history.txt (contengono solo rimandi al file xls)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlsys,nlDatafiles. Integrated ini in nlSys</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -661,12 +716,12 @@
     <numFmt numFmtId="165" formatCode="dd\-mmm"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -689,14 +744,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -704,7 +759,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -712,13 +767,19 @@
       <sz val="11"/>
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -769,68 +830,72 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,39 +908,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -982,14 +1014,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1116,58 +1148,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048574"/>
+  <dimension ref="A1:K1048575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H64" activeCellId="0" sqref="H64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="68.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="21.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1175,10 +1207,10 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1196,10 +1228,10 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1207,7 +1239,7 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1222,7 +1254,7 @@
       <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1233,10 +1265,10 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1254,10 +1286,10 @@
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1265,10 +1297,10 @@
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1286,10 +1318,10 @@
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1297,10 +1329,10 @@
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1318,10 +1350,10 @@
       <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1329,10 +1361,10 @@
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1350,10 +1382,10 @@
       <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="I7" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1361,10 +1393,10 @@
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="12" t="n">
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1382,10 +1414,10 @@
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="I8" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1393,10 +1425,10 @@
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1414,10 +1446,10 @@
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J9" s="0" t="s">
+      <c r="I9" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1425,10 +1457,10 @@
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="12" t="n">
         <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1446,10 +1478,10 @@
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1457,10 +1489,10 @@
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="12" t="n">
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1478,10 +1510,10 @@
       <c r="H11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="I11" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1489,10 +1521,10 @@
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="12" t="n">
         <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1510,10 +1542,10 @@
       <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="I12" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1521,10 +1553,10 @@
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1542,21 +1574,21 @@
       <c r="H13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J13" s="0" t="s">
+      <c r="I13" s="13" t="n">
+        <v>45611</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1571,10 +1603,10 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="I14" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1582,10 +1614,10 @@
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1603,10 +1635,10 @@
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J15" s="0" t="s">
+      <c r="I15" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1614,10 +1646,10 @@
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="12" t="n">
         <v>99</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1635,10 +1667,10 @@
       <c r="H16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J16" s="0" t="s">
+      <c r="I16" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1646,7 +1678,7 @@
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="3" t="n">
@@ -1667,10 +1699,10 @@
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="I17" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1678,7 +1710,7 @@
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="3" t="n">
@@ -1699,10 +1731,10 @@
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="I18" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1710,7 +1742,7 @@
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="3" t="n">
@@ -1731,10 +1763,10 @@
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J19" s="0" t="s">
+      <c r="I19" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1742,7 +1774,7 @@
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="3" t="n">
@@ -1763,10 +1795,10 @@
       <c r="H20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J20" s="0" t="s">
+      <c r="I20" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1774,7 +1806,7 @@
       <c r="A21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="3" t="n">
@@ -1795,10 +1827,10 @@
       <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J21" s="0" t="s">
+      <c r="I21" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1806,7 +1838,7 @@
       <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C22" s="3" t="n">
@@ -1827,10 +1859,10 @@
       <c r="H22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J22" s="0" t="s">
+      <c r="I22" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1838,7 +1870,7 @@
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="3" t="n">
@@ -1859,10 +1891,10 @@
       <c r="H23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J23" s="0" t="s">
+      <c r="I23" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1870,7 +1902,7 @@
       <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="3" t="n">
@@ -1891,10 +1923,10 @@
       <c r="H24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J24" s="0" t="s">
+      <c r="I24" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1902,7 +1934,7 @@
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="3" t="n">
@@ -1923,10 +1955,10 @@
       <c r="H25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J25" s="0" t="s">
+      <c r="I25" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1934,7 +1966,7 @@
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="3" t="n">
@@ -1955,10 +1987,10 @@
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J26" s="0" t="s">
+      <c r="I26" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1966,7 +1998,7 @@
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C27" s="3" t="n">
@@ -1987,10 +2019,10 @@
       <c r="H27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J27" s="0" t="s">
+      <c r="I27" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1998,7 +2030,7 @@
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="3" t="n">
@@ -2019,10 +2051,10 @@
       <c r="H28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="I28" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2030,7 +2062,7 @@
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="3" t="n">
@@ -2051,10 +2083,10 @@
       <c r="H29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J29" s="0" t="s">
+      <c r="I29" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2062,7 +2094,7 @@
       <c r="A30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="3" t="n">
@@ -2080,10 +2112,10 @@
       <c r="H30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J30" s="0" t="s">
+      <c r="I30" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2091,7 +2123,7 @@
       <c r="A31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="3" t="n">
@@ -2109,10 +2141,10 @@
       <c r="H31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="I31" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2120,7 +2152,7 @@
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="3" t="n">
@@ -2138,10 +2170,10 @@
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J32" s="0" t="s">
+      <c r="I32" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2149,7 +2181,7 @@
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="3" t="n">
@@ -2167,10 +2199,10 @@
       <c r="H33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="12" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J33" s="0" t="s">
+      <c r="I33" s="13" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2178,7 +2210,7 @@
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="3" t="n">
@@ -2196,10 +2228,10 @@
       <c r="H34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J34" s="0" t="s">
+      <c r="I34" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2207,7 +2239,7 @@
       <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="3" t="n">
@@ -2228,10 +2260,10 @@
       <c r="H35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J35" s="0" t="s">
+      <c r="I35" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2239,7 +2271,7 @@
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C36" s="3" t="n">
@@ -2260,10 +2292,10 @@
       <c r="H36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J36" s="0" t="s">
+      <c r="I36" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2271,7 +2303,7 @@
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C37" s="3" t="n">
@@ -2292,10 +2324,10 @@
       <c r="H37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="I37" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2303,7 +2335,7 @@
       <c r="A38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="3" t="n">
@@ -2324,10 +2356,10 @@
       <c r="H38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J38" s="0" t="s">
+      <c r="I38" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2335,7 +2367,7 @@
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="3" t="n">
@@ -2356,10 +2388,10 @@
       <c r="H39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J39" s="0" t="s">
+      <c r="I39" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2367,7 +2399,7 @@
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C40" s="3" t="n">
@@ -2388,10 +2420,10 @@
       <c r="H40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J40" s="0" t="s">
+      <c r="I40" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2399,7 +2431,7 @@
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="3" t="n">
@@ -2417,10 +2449,10 @@
       <c r="H41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J41" s="0" t="s">
+      <c r="I41" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2428,7 +2460,7 @@
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C42" s="3" t="n">
@@ -2449,10 +2481,10 @@
       <c r="H42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J42" s="0" t="s">
+      <c r="I42" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2460,7 +2492,7 @@
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="3" t="n">
@@ -2481,10 +2513,10 @@
       <c r="H43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J43" s="0" t="s">
+      <c r="I43" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2492,7 +2524,7 @@
       <c r="A44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="3" t="n">
@@ -2513,10 +2545,10 @@
       <c r="H44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J44" s="0" t="s">
+      <c r="I44" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2524,7 +2556,7 @@
       <c r="A45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="3" t="n">
@@ -2542,7 +2574,7 @@
       <c r="H45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="12" t="n">
+      <c r="I45" s="13" t="n">
         <v>45474</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -2553,7 +2585,7 @@
       <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C46" s="3" t="n">
@@ -2574,7 +2606,7 @@
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="12" t="n">
+      <c r="I46" s="13" t="n">
         <v>45474</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -2585,7 +2617,7 @@
       <c r="A47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C47" s="3" t="n">
@@ -2606,7 +2638,7 @@
       <c r="H47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="14" t="n">
+      <c r="I47" s="15" t="n">
         <v>45474</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -2617,7 +2649,7 @@
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C48" s="3" t="n">
@@ -2638,7 +2670,7 @@
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="12" t="n">
+      <c r="I48" s="13" t="n">
         <v>45474</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -2649,10 +2681,10 @@
       <c r="A49" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="11" t="n">
+      <c r="C49" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -2670,10 +2702,10 @@
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="15" t="n">
-        <v>45505</v>
-      </c>
-      <c r="J49" s="0" t="s">
+      <c r="I49" s="16" t="n">
+        <v>45611</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2681,7 +2713,7 @@
       <c r="A50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C50" s="3" t="n">
@@ -2702,7 +2734,7 @@
       <c r="H50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I50" s="12" t="n">
+      <c r="I50" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -2713,7 +2745,7 @@
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C51" s="3" t="n">
@@ -2734,7 +2766,7 @@
       <c r="H51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I51" s="12" t="n">
+      <c r="I51" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J51" s="3" t="s">
@@ -2745,7 +2777,7 @@
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C52" s="3" t="n">
@@ -2766,7 +2798,7 @@
       <c r="H52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="12" t="n">
+      <c r="I52" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J52" s="3" t="s">
@@ -2777,7 +2809,7 @@
       <c r="A53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C53" s="3" t="n">
@@ -2798,7 +2830,7 @@
       <c r="H53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="12" t="n">
+      <c r="I53" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -2809,10 +2841,10 @@
       <c r="A54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C54" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -2830,10 +2862,10 @@
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I54" s="15" t="n">
+      <c r="I54" s="16" t="n">
         <v>45505</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2841,7 +2873,7 @@
       <c r="A55" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>158</v>
       </c>
       <c r="C55" s="3" t="n">
@@ -2862,7 +2894,7 @@
       <c r="H55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="14" t="n">
+      <c r="I55" s="15" t="n">
         <v>45474</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -2873,7 +2905,7 @@
       <c r="A56" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C56" s="3" t="n">
@@ -2894,7 +2926,7 @@
       <c r="H56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="14" t="n">
+      <c r="I56" s="15" t="n">
         <v>45474</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -2905,7 +2937,7 @@
       <c r="A57" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C57" s="3" t="n">
@@ -2926,10 +2958,10 @@
       <c r="H57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="14" t="n">
-        <v>45474</v>
-      </c>
-      <c r="J57" s="0" t="s">
+      <c r="I57" s="15" t="n">
+        <v>45474</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2937,7 +2969,7 @@
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="3" t="n">
@@ -2958,7 +2990,7 @@
       <c r="H58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="12" t="n">
+      <c r="I58" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -2967,10 +2999,10 @@
     </row>
     <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="C59" s="3" t="n">
         <v>10</v>
@@ -2990,7 +3022,7 @@
       <c r="H59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="12" t="n">
+      <c r="I59" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -2999,30 +3031,30 @@
     </row>
     <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>168</v>
+        <v>104</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="12" t="n">
+      <c r="I60" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -3031,10 +3063,10 @@
     </row>
     <row r="61" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>90</v>
@@ -3054,7 +3086,7 @@
       <c r="H61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I61" s="12" t="n">
+      <c r="I61" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -3063,10 +3095,10 @@
     </row>
     <row r="62" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>171</v>
+        <v>149</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="C62" s="3" t="n">
         <v>90</v>
@@ -3086,7 +3118,7 @@
       <c r="H62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="12" t="n">
+      <c r="I62" s="13" t="n">
         <v>45505</v>
       </c>
       <c r="J62" s="3" t="s">
@@ -3095,33 +3127,33 @@
     </row>
     <row r="63" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="11" t="n">
-        <v>60</v>
+      <c r="B63" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>90</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I63" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="I63" s="13" t="n">
         <v>45505</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="J63" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3129,35 +3161,67 @@
       <c r="A64" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="13" t="n">
+        <v>45505</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="D65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" s="12" t="n">
+      <c r="H65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" s="13" t="n">
         <v>45505</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="J65" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3198,48 +3262,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="15" t="n">
         <v>45474</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>45507</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3266,134 +3341,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>182</v>
+      <c r="D1" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>185</v>
+      <c r="A2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>187</v>
+      <c r="A3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="5" t="s">
         <v>188</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>189</v>
+      <c r="B5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>190</v>
+      <c r="B6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>191</v>
+      <c r="B7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>193</v>
+      <c r="B8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>194</v>
+      <c r="B9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>195</v>
+      <c r="B10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>196</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
